--- a/code/Insight ICC Analysis.xlsx
+++ b/code/Insight ICC Analysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36280" windowHeight="17620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
+    <sheet name="Histogram" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -10289,11 +10290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1299305504"/>
-        <c:axId val="1299318624"/>
+        <c:axId val="-672405312"/>
+        <c:axId val="-672400912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1299305504"/>
+        <c:axId val="-672405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10326,7 +10327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -10351,12 +10351,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1299318624"/>
+        <c:crossAx val="-672400912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1299318624"/>
+        <c:axId val="-672400912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10389,7 +10389,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -10414,7 +10413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1299305504"/>
+        <c:crossAx val="-672405312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20472,11 +20471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1296643936"/>
-        <c:axId val="1296650784"/>
+        <c:axId val="-1865378416"/>
+        <c:axId val="-1865374656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1296643936"/>
+        <c:axId val="-1865378416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20505,10 +20504,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -20533,12 +20533,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296650784"/>
+        <c:crossAx val="-1865374656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1296650784"/>
+        <c:axId val="-1865374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -20568,10 +20568,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -20596,7 +20597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296643936"/>
+        <c:crossAx val="-1865378416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20608,11 +20609,936 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1834309776"/>
+        <c:axId val="-1834314688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1834309776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="23.0"/>
+          <c:min val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1834314688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1834314688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1834309776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20653,7 +21579,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
@@ -20672,6 +21598,33 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684559" cy="6293971"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
@@ -46797,10 +47750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1527"/>
+  <dimension ref="A1:I1527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -46808,7 +47761,7 @@
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46828,7 +47781,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -46847,8 +47800,16 @@
       <c r="F2" s="31">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>MIN(D2:D1527)</f>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:I20">FREQUENCY(D2:D1527,H2:H20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -46867,8 +47828,15 @@
       <c r="F3" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f>H2+1</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -46887,8 +47855,15 @@
       <c r="F4" s="31">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" ref="H4:H23" si="0">H3+1</f>
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -46907,8 +47882,15 @@
       <c r="F5" s="31">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -46927,8 +47909,15 @@
       <c r="F6" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -46947,8 +47936,15 @@
       <c r="F7" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -46967,8 +47963,15 @@
       <c r="F8" s="31">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -46987,8 +47990,15 @@
       <c r="F9" s="31">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -47007,8 +48017,15 @@
       <c r="F10" s="31">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -47027,8 +48044,15 @@
       <c r="F11" s="31">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16</v>
       </c>
@@ -47047,8 +48071,15 @@
       <c r="F12" s="31">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -47067,8 +48098,15 @@
       <c r="F13" s="31">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>18</v>
       </c>
@@ -47087,8 +48125,15 @@
       <c r="F14" s="31">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -47107,8 +48152,15 @@
       <c r="F15" s="31">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -47127,8 +48179,15 @@
       <c r="F16" s="31">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -47147,8 +48206,15 @@
       <c r="F17" s="31">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -47167,8 +48233,15 @@
       <c r="F18" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -47187,8 +48260,15 @@
       <c r="F19" s="31">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22</v>
       </c>
@@ -47207,8 +48287,15 @@
       <c r="F20" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -47228,7 +48315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -47248,7 +48335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -47268,7 +48355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -47288,7 +48375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -47308,7 +48395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -47328,7 +48415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -47348,7 +48435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -47368,7 +48455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23</v>
       </c>
@@ -47388,7 +48475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -47408,7 +48495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
@@ -47428,7 +48515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
